--- a/math/toan_rr/3. Phương pháp đếm.xlsx
+++ b/math/toan_rr/3. Phương pháp đếm.xlsx
@@ -1,25 +1,200 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="nguyen li dem" sheetId="1" r:id="rId1"/>
+    <sheet name="giai tich to hop" sheetId="2" r:id="rId2"/>
+    <sheet name="to hop lap" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+  <si>
+    <t>Nguyên lý đếm cơ bản</t>
+  </si>
+  <si>
+    <t>Nguyên lý cộng</t>
+  </si>
+  <si>
+    <t>Để làm công việc A ta có 2 phương pháp</t>
+  </si>
+  <si>
+    <t>Phương pháp 1: có n cách thực hiện</t>
+  </si>
+  <si>
+    <t>Phương pháp 2: có m cách thực hiện</t>
+  </si>
+  <si>
+    <t>Vậy sẽ có n + m cách thực hiện</t>
+  </si>
+  <si>
+    <t>Nguyên lý nhân</t>
+  </si>
+  <si>
+    <t>Để thực hiện công việc A cần có 2 bước</t>
+  </si>
+  <si>
+    <t>Bước 1: có n cách thực hiện</t>
+  </si>
+  <si>
+    <t>Bước 2: có m cách thực hiện</t>
+  </si>
+  <si>
+    <t>Vậy có tất cả n*m cách thực hiện</t>
+  </si>
+  <si>
+    <t>Nguyên lí bù trừ</t>
+  </si>
+  <si>
+    <t>|A ∪ B| = |A| + |B| − |A ∩ B|</t>
+  </si>
+  <si>
+    <t>Nguyên lí dirichlet</t>
+  </si>
+  <si>
+    <t>Giá trị trần của x , kí hiệu [x] là số nguyên nhỏ nhất mà &gt;= x</t>
+  </si>
+  <si>
+    <t>VD</t>
+  </si>
+  <si>
+    <t>-&gt; 3</t>
+  </si>
+  <si>
+    <t>Giả sử có n chim bồ câu trong k chuồng, khi đó tồn tại ít nhất 1 chuồng chứ từ [n/k] bồ câu trở lên</t>
+  </si>
+  <si>
+    <t>20 chim bồ câu trong 6 chuông</t>
+  </si>
+  <si>
+    <t>-&gt; 4</t>
+  </si>
+  <si>
+    <t>Giải tích tổ hợp</t>
+  </si>
+  <si>
+    <t>Hoán vị</t>
+  </si>
+  <si>
+    <t>Cho tập hợp A gồm n phần tử. Mỗi cách sắp xếp có thứ tự n phần tử của A gọi là hoán vị</t>
+  </si>
+  <si>
+    <t>Pn = n!</t>
+  </si>
+  <si>
+    <t>Chỉnh hợp</t>
+  </si>
+  <si>
+    <t>Cho tập hợp A gồm n phần tử. Mỗi bộ sắp thứ tự gồm k phần tử của A gọi là một chỉnh hợp chập k của n.</t>
+  </si>
+  <si>
+    <t>Tổ hợp</t>
+  </si>
+  <si>
+    <t>Cho tập A gồm n phần tử. Mỗi tập con gồm k phần tử của A được gọi là một tổ hợp chập k của n</t>
+  </si>
+  <si>
+    <t>(không phân biệt thứ tự)</t>
+  </si>
+  <si>
+    <t>Hoán vị lặp</t>
+  </si>
+  <si>
+    <t>Mỗi cách sắp xếp có thứ tự n đối tượng đã cho gọi là một hoán vị lặp của n</t>
+  </si>
+  <si>
+    <t>Cho n đối tượng trong đó có n(i) đối tượng loại i ( 1 &lt; i &lt;= k) giống hệt nhau</t>
+  </si>
+  <si>
+    <t>VD: AAABBB</t>
+  </si>
+  <si>
+    <t>Chỉnh hợp lặp</t>
+  </si>
+  <si>
+    <t>Cho A là tập hợp gồm n phần tử. Chỉnh hợp lặp chập k của n phần tử là một bộ sắp thứ tự k phần tử của A, các phần tử có thể lặp lại.</t>
+  </si>
+  <si>
+    <t>VD: có 5 phần tử, chọn 2 phần tử</t>
+  </si>
+  <si>
+    <t>B1: chọn phần tử thứ 1 từ 5 phần tử</t>
+  </si>
+  <si>
+    <t>B2. chọn phần tử thứ 2 từ 5 phần tử. ( số phần tử qua các bước không mất đi)</t>
+  </si>
+  <si>
+    <t>Các phần tử có thể lặp lại</t>
+  </si>
+  <si>
+    <t>Tổ hợp lặp</t>
+  </si>
+  <si>
+    <t>Mỗi cách chọn ra k vật từ n loại vật khác nhau (trong đó mỗi loại vật có thể được chọn lại nhiều lần) được gọi là tổ hợp lặp chập k của n.</t>
+  </si>
+  <si>
+    <t>Số nghiệm không âm của phương trình</t>
+  </si>
+  <si>
+    <t>Khai triển lũy thừa của đa thức</t>
+  </si>
+  <si>
+    <t>tổng được lấy trên tất cả các bộ m số tự nhiên (k1,k2,…,km) sao cho k1 + k2 +…+ km = n.</t>
+  </si>
+  <si>
+    <t>Chính là bài toán tìm số nghiệm của phương trình x1 + x2 + x3 = 3</t>
+  </si>
+  <si>
+    <t>= 5C 3</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -46,15 +221,421 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>373776</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152545</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="76200" y="3322320"/>
+          <a:ext cx="4564776" cy="1668925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>290088</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>106751</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="289560" y="1645920"/>
+          <a:ext cx="6096528" cy="815411"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>373643</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>83904</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="388620" y="3299460"/>
+          <a:ext cx="3033023" cy="967824"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>450053</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>68649</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="472440" y="914400"/>
+          <a:ext cx="5464013" cy="800169"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>61071</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76238</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="3291840"/>
+          <a:ext cx="1280271" cy="441998"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>411675</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>61</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="601980" y="4602480"/>
+          <a:ext cx="2248095" cy="701101"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>229148</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>167718</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="6035040"/>
+          <a:ext cx="6325148" cy="899238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>442579</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>83954</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="7498080"/>
+          <a:ext cx="7148179" cy="1546994"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>343669</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>83986</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="9326880"/>
+          <a:ext cx="8878069" cy="1912786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>221686</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>167924</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="11887200"/>
+          <a:ext cx="8146486" cy="3276884"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -343,37 +924,299 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>2.1</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>2.9</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <f xml:space="preserve"> 20/6</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A1" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="65" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B85" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B86" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>